--- a/author_ref_numbers.xlsx
+++ b/author_ref_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11679a5894e85aa0/POSTDOC/PROJECT_MetaAnalysis/DA5HT_MetaAnalysis_public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{6AA31071-FAEB-1F45-B2D3-F46D34DF9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFECF6B-7366-BA4B-938B-C6BA2262BBA1}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{6AA31071-FAEB-1F45-B2D3-F46D34DF9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F398D3-9EE1-794C-85FB-D5EE860A3DC6}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{C111DC85-707E-F64E-BA70-87023971FDD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">Cipriani A, Furukawa TA, Salanti G, et al. Comparative efficacy and acceptability of 21 antidepressant drugs for the acute treatment of adults with major depressive disorder: a systematic review and network meta-analysis. https://doi.org/10.1016/s0140-6736(17)32802-7. Lancet. 2018;391(10128):1357-1366. </t>
   </si>
@@ -266,583 +266,556 @@
     <t>Higgins JPT, Thomas J, Chandler J, et al. Cochrane Handbook for Systematic Reviews of Interventions version 6.5. 2024.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Bayer HM, Glimcher PW. Midbrain dopamine neurons encode a quantitative reward prediction error signal. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neuron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Jul 7 2005;47(1):129-41. doi:10.1016/j.neuron.2005.05.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tortora F, Hadipour AL, Battaglia S, Falzone A, Avenanti A, Vicario CM. The Role of Serotonin in Fear Learning and Memory: A Systematic Review of Human Studies. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Brain Sci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Aug 12 2023;13(8)doi:10.3390/brainsci13081197</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Malamud J, Lewis G, Moutoussis M, et al. The selective serotonin reuptake inhibitor sertraline alters learning from aversive reinforcements in patients with depression: evidence from a randomized controlled trial. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Psychol Med</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Jul 2024;54(10):2719-2731. doi:10.1017/s0033291724000837</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moutoussis M, Garzón B, Neufeld S, et al. Decision-making ability, psychopathology, and brain connectivity. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neuron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Jun 16 2021;109(12):2025-2040.e7. doi:10.1016/j.neuron.2021.04.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pike AC, Tan KHT, Tromblee H, Wing M, Robinson OJ. Test-Retest Reliability of Two Computationally-Characterised Affective Bias Tasks. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comput Psychiatr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. 2024;8(1):217-232. doi:10.5334/cpsy.92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zorowitz S, Niv Y. Improving the Reliability of Cognitive Task Measures: A Narrative Review. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Biol Psychiatry Cogn Neurosci Neuroimaging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Aug 2023;8(8):789-797. doi:10.1016/j.bpsc.2023.02.004</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamid AA, Pettibone JR, Mabrouk OS, et al. Mesolimbic dopamine signals the value of work. https://doi.org/10.1038/nn.4173. Nat Neurosci. 2016;19(1):117-26. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castrellon JJ, Meade J, Greenwald L, Hurst K, Samanez-Larkin GR. Dopaminergic modulation of reward discounting in healthy rats: a systematic review and meta-analysis. https://doi.org/10.1007/s00213-020-05723-5. Psychopharmacology (Berl). 2021;238(3):711-723. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costello H, Berry AJ, Reeves S, et al. Disrupted reward processing in Parkinson's disease and its relationship with dopamine state and neuropsychiatric syndromes: a systematic review and meta-analysis. https://doi.org/10.1136/jnnp-2021-327762. J Neurol Neurosurg Psychiatry. 2022;93(5):555-562. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westbrook A, van den Bosch R, Maatta JI, et al. Dopamine promotes cognitive effort by biasing the benefits versus costs of cognitive work. https://doi.org/10.1126/science.aaz5891. Science (New York, NY). 2020;367(6484):1362-1366. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miyazaki KW, Miyazaki K, Tanaka KF, et al. Optogenetic activation of dorsal raphe serotonin neurons enhances patience for future rewards. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Curr Biol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Sep 8 2014;24(17):2033-40. doi:10.1016/j.cub.2014.07.041</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnow BA, Blasey C, Williams LM, et al. Depression Subtypes in Predicting Antidepressant Response: A Report From the iSPOT-D Trial. https://doi.org/10.1176/appi.ajp.2015.14020181. Am J Psychiatry. 2015;172(8):743-50. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chekroud AM, Hawrilenko M, Loho H, et al. Illusory generalizability of clinical prediction models. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Jan 12 2024;383(6679):164-167. doi:10.1126/science.adg8538</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lan DCL, Browning M. What Can Reinforcement Learning Models of Dopamine and Serotonin Tell Us about the Action of Antidepressants? https://doi.org/10.5334/cpsy.83. Comput Psychiatr. 2022;6(1):166-188. </t>
+  </si>
+  <si>
+    <t>Eckstein MK, Master SL, Xia L, Dahl RE, Wilbrecht L, Collins AGE. The interpretation of computational model parameters depends on the context. https://doi.org/10.7554/eLife.75474. Elife. 2022;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cools R, D'Esposito M. Inverted-U-shaped dopamine actions on human working memory and cognitive control. https://doi.org/10.1016/j.biopsych.2011.03.028. Biol Psychiatry. 2011;69(12):e113-25. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kanen JW, Apergis-Schoute AM, Yellowlees R, et al. Serotonin depletion impairs both Pavlovian and instrumental reversal learning in healthy humans. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mol Psychiatry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Dec 2021;26(12):7200-7210. doi:10.1038/s41380-021-01240-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dreher JC, Schmidt PJ, Kohn P, Furman D, Rubinow D, Berman KF. Menstrual cycle phase modulates reward-related neural function in women. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proc Natl Acad Sci U S A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Feb 13 2007;104(7):2465-70. doi:10.1073/pnas.0605569104</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Faulkner P, Deakin JF. The role of serotonin in reward, punishment and behavioural inhibition in humans: insights from studies with acute tryptophan depletion. https://doi.org/10.1016/j.neubiorev.2014.07.024. Neurosci Biobehav Rev. 2014;46 Pt 3:365-78. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jocham G, Klein TA, Ullsperger M. Dopamine-mediated reinforcement learning signals in the striatum and ventromedial prefrontal cortex underlie value-based choices. https://doi.org/10.1523/jneurosci.3904-10.2011. J Neurosci. 2011;31(5):1606-13. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admon R, Kaiser RH, Dillon DG, et al. Dopaminergic Enhancement of Striatal Response to Reward in Major Depression. https://doi.org/10.1176/appi.ajp.2016.16010111. Am J Psychiatry. 2017;174(4):378-386. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsh AEL, Huneke NTM, Brown R, Browning M, Cowen P, Harmer CJ. A Dissociation of the Acute Effects of Bupropion on Positive Emotional Processing and Reward Processing in Healthy Volunteers. https://doi.org/10.3389/fpsyt.2018.00482. Front Psychiatry. 2018;9:482-482. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernacer J, Corlett PR, Ramachandra P, et al. Methamphetamine-induced disruption of frontostriatal reward learning signals: relation to psychotic symptoms. https://doi.org/10.1176/appi.ajp.2013.12070978. The American journal of psychiatry. 2013;170(11):1326-34. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westbrook A, van den Bosch R, Hofmans L, et al. Striatal Dopamine Can Enhance Learning, Both Fast and Slow, and Also Make it Cheaper. https://doi.org/10.1101/2024.02.14.580392. bioRxiv. 2024:2024.02.14.580392-2024.02.14.580392. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howlett JR, Huang H, Hysek CM, Paulus MP. The effect of single-dose methylphenidate on the rate of error-driven learning in healthy males: a randomized controlled trial. https://doi.org/10.1007/s00213-017-4723-5. Psychopharmacology (Berl). 2017;234(22):3353-3360. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addicott MA, Pearson JM, Schechter JC, Sapyta JJ, Weiss MD, Kollins SH. Attention-deficit/hyperactivity disorder and the explore/exploit trade-off. https://doi.org/10.1038/s41386-020-00881-8. Neuropsychopharmacology. 2021;46(3):614-621. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellebaum C, Kuchinke L, Roser P. Modafinil alters decision making based on feedback history - a randomized placebo-controlled double blind study in humans. https://doi.org/10.1177/0269881116668591. Journal of psychopharmacology (Oxford, England). 2017;31(2):243-249. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jansen M, Lockwood PL, Cutler J, de Bruijn ERA. l-DOPA and oxytocin influence the neurocomputational mechanisms of self-benefitting and prosocial reinforcement learning. https://doi.org/10.1016/j.neuroimage.2023.119983. Neuroimage. 2023;270:119983-119983. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weis T, Puschmann S, Brechmann A, Thiel CM. Effects of L-dopa during auditory instrumental learning in humans. https://doi.org/10.1371/journal.pone.0052504. PLoS One. 2012;7(12):e52504-e52504. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakroun K, Wiehler A, Wagner B, et al. Dopamine regulates decision thresholds in human reinforcement learning in males. https://doi.org/10.1038/s41467-023-41130-y. Nat Commun. 2023;14(1):5369-5369. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halahakoon DC, Kaltenboeck A, Martens M, et al. Pramipexole Enhances Reward Learning by Preserving Value Estimates. https://doi.org/10.1016/j.biopsych.2023.05.023. Biol Psychiatry. 2024;95(3):286-296. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jocham G, Klein TA, Ullsperger M. Differential modulation of reinforcement learning by D2 dopamine and NMDA glutamate receptor antagonism. https://doi.org/10.1523/JNEUROSCI.0757-14.2014. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2014;34(39):13151-62. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahnt T, Weber SC, Haker H, Robbins TW, Tobler PN. Dopamine D2-receptor blockade enhances decoding of prefrontal signals in humans. https://doi.org/10.1523/jneurosci.4182-14.2015. J Neurosci. 2015;35(9):4104-11. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Murray GK, Knolle F, Ersche KD, et al. Dopaminergic drug treatment remediates exaggerated cingulate prediction error responses in obsessive-compulsive disorder. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Psychopharmacology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 2019;236:2325-2336. </t>
+    </r>
+  </si>
+  <si>
+    <t>Mikus N, Korb S, Massaccesi C, et al. Effects of dopamine D2/3 and opioid receptor antagonism on the trade-off between model-based and model-free behaviour in healthy volunteers. https://doi.org/10.7554/eLife.79661. eLife. 2022;11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cremer A, Kalbe F, Müller JC, Wiedemann K, Schwabe L. Disentangling the roles of dopamine and noradrenaline in the exploration-exploitation tradeoff during human decision-making. https://doi.org/10.1038/s41386-022-01517-9. Neuropsychopharmacology. 2023;48(7):1078-1086. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diederen KM, Ziauddeen H, Vestergaard MD, Spencer T, Schultz W, Fletcher PC. Dopamine Modulates Adaptive Prediction Error Coding in the Human Midbrain and Striatum. https://doi.org/10.1523/jneurosci.1979-16.2016. J Neurosci. 2017;37(7):1708-1720. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haarsma J, Fletcher PC, Griffin JD, et al. Precision weighting of cortical unsigned prediction error signals benefits learning, is mediated by dopamine, and is impaired in psychosis. https://doi.org/10.1038/s41380-020-0803-8. Mol Psychiatry. 2021;26(9):5320-5333. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisenegger C, Naef M, Linssen A, et al. Role of dopamine D2 receptors in human reinforcement learning. https://doi.org/10.1038/npp.2014.84. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2014;39(10):2366-75. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grob S, Pizzagalli DA, Dutra SJ, et al. Dopamine-related deficit in reward learning after catecholamine depletion in unmedicated, remitted subjects with bulimia nervosa. https://doi.org/10.1038/npp.2012.41. Neuropsychopharmacology. 2012;37(8):1945-52. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cox SM, Frank MJ, Larcher K, et al. Striatal D1 and D2 signaling differentially predict learning from positive and negative outcomes. https://doi.org/10.1016/j.neuroimage.2014.12.070. Neuroimage. 2015;109:95-101. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzagalli DA, Evins AE, Schetter EC, et al. Single dose of a dopamine agonist impairs reinforcement learning in humans: behavioral evidence from a laboratory-based measure of reward responsiveness. https://doi.org/10.1007/s00213-007-0957-y. Psychopharmacology. 2008;196(2):221-32. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner B, Clos M, Sommer T, Peters J. Dopaminergic Modulation of Human Intertemporal Choice: A Diffusion Model Analysis Using the D2-Receptor Antagonist Haloperidol. https://doi.org/10.1523/jneurosci.0592-20.2020. J Neurosci. 2020;40(41):7936-7948. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfanian Abdoust M, Froböse MI, Schnitzler A, Schreivogel E, Jocham G. Dopamine and acetylcholine have distinct roles in delay- and effort-based decision-making in humans. https://doi.org/10.1371/journal.pbio.3002714. PLoS Biol. 2024;22(7):e3002714-e3002714. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Wit H, Enggasser JL, Richards JB. Acute administration of d-amphetamine decreases impulsivity in healthy volunteers. https://doi.org/10.1016/s0893-133x(02)00343-3. Neuropsychopharmacology. 2002;27(5):813-25. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wardle MC, Treadway MT, Mayo LM, Zald DH, de Wit H. Amping up effort: effects of d-amphetamine on human effort-based decision-making. https://doi.org/10.1523/JNEUROSCI.4387-11.2011. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2011;31(46):16597-602. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soder HE, Cooper JA, Lopez-Gamundi P, et al. Dose-response effects of d-amphetamine on effort-based decision-making and reinforcement learning. https://doi.org/10.1038/s41386-020-0779-8. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2021;46(6):1078-1085. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daood M, Peled-Avron L, Ben-Hayun R, et al. Fronto-striatal connectivity patterns account for the impact of methylphenidate on choice impulsivity among healthy adults. https://doi.org/10.1016/j.neuropharm.2022.109190. Neuropharmacology. 2022;216:109190-109190. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pine A, Shiner T, Seymour B, Dolan RJ. Dopamine, time, and impulsivity in humans. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of neuroscience : the official journal of the Society for Neuroscience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 2010;30:8888-96. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith E, Theis H, van Eimeren T, et al. Dopamine and temporal discounting: revisiting pharmacology and individual differences. https://doi.org/10.1101/2024.08.28.610170. bioRxiv. 2024:2024.08.28.610170-2024.08.28.610170. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayser AS, Allen DC, Navarro-Cebrian A, Mitchell JM, Fields HL. Dopamine, corticostriatal connectivity, and intertemporal choice. https://doi.org/10.1523/jneurosci.1180-12.2012. J Neurosci. 2012;32(27):9402-9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber SC, Beck-Schimmer B, Kajdi ME, Müller D, Tobler PN, Quednow BB. Dopamine D2/3- and μ-opioid receptor antagonists reduce cue-induced responding and reward impulsivity in humans. https://doi.org/10.1038/tp.2016.113. Transl Psychiatry. 2016;6(7):e850-e850. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelm MK, Boettiger CA. Effects of acute dopamine precusor depletion on immediate reward selection bias and working memory depend on catechol-O-methyltransferase genotype. https://doi.org/10.1162/jocn_a_00464. J Cogn Neurosci. 2013;25(12):2061-71. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikeda Y, Funayama T, Tateno A, Fukayama H, Okubo Y, Suzuki H. Bupropion increases activation in nucleus accumbens during anticipation of monetary reward. https://doi.org/10.1007/s00213-019-05337-6. Psychopharmacology (Berl). 2019;236(12):3655-3665. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimm O, Nägele M, Küpper-Tetzel L, de Greck M, Plichta M, Reif A. No effect of a dopaminergic modulation fMRI task by amisulpride and L-DOPA on reward anticipation in healthy volunteers. https://doi.org/10.1007/s00213-020-05693-8. Psychopharmacology (Berl). 2021;238(5):1333-1342. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Michely J, Viswanathan S, Hauser TU, Delker L, Dolan RJ, Grefkes C. The role of dopamine in dynamic effort-reward integration. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 2020;45:1448-1453. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Beierholm U, Guitart-Masip M, Economides M, et al. Dopamine modulates reward-related vigor. https://doi.org/10.1038/npp.2013.48. Neuropsychopharmacology. 2013;38(8):1495-503. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehta MA, Swainson R, Ogilvie AD, Sahakian J, Robbins TW. Improved short-term spatial memory but impaired reversal learning following the dopamine D(2) agonist bromocriptine in human volunteers. https://doi.org/10.1007/s002130100851. Psychopharmacology (Berl). 2001;159(1):10-20. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au-Yeung SK, Halahakoon DC, Kaltenboeck A, Cowen P, Browning M, Manohar SG. The effects of pramipexole on motivational vigour during a saccade task: a placebo-controlled study in healthy adults. https://doi.org/10.1007/s00213-024-06567-z. Psychopharmacology (Berl). 2024;241(7):1365-1375. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf H, Wiegers M, Metzger CD, Walter M, Abler B. Differential Noradrenergic Modulation of Monetary Reward and Visual Erotic Stimulus Processing. https://doi.org/10.3389/fpsyt.2018.00346. Front Psychiatry. 2018;9:346-346. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abler B, Erk S, Walter H. Human reward system activation is modulated by a single dose of olanzapine in healthy subjects in an event-related, double-blind, placebo-controlled fMRI study. https://doi.org/10.1007/s00213-006-0690-y. Psychopharmacology (Berl). 2007;191(3):823-33. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehta MA, Gumaste D, Montgomery AJ, McTavish SF, Grasby PM. The effects of acute tyrosine and phenylalanine depletion on spatial working memory and planning in healthy volunteers are predicted by changes in striatal dopamine levels. https://doi.org/10.1007/s00213-004-2128-8. Psychopharmacology (Berl). 2005;180(4):654-63. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitart-Masip M, Chowdhury R, Sharot T, Dayan P, Duzel E, Dolan RJ. Action controls dopaminergic enhancement of reward representations. https://doi.org/10.1073/pnas.1202229109. Proceedings of the National Academy of Sciences of the United States of America. 2012;109(19):7511-6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitart-Masip M, Economides M, Huys QJ, et al. Differential, but not opponent, effects of L -DOPA and citalopram on action learning with reward and punishment. https://doi.org/10.1007/s00213-013-3313-4. Psychopharmacology (Berl). 2014;231(5):955-66. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholz V, Hook RW, Kandroodi MR, et al. Cortical dopamine reduces the impact of motivational biases governing automated behaviour. https://doi.org/10.1038/s41386-022-01291-8. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2022;47(8):1503-1512. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebart MN, Glascher J. Serotonin and dopamine differentially affect appetitive and aversive general Pavlovian-to-instrumental transfer. https://doi.org/10.1007/s00213-014-3682-3. Psychopharmacology. 2015;232(2):437-51. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colwell MJ, Tagomori H, Shang F, et al. Direct serotonin release in humans shapes aversive learning and inhibition. https://doi.org/10.1038/s41467-024-50394-x. Nat Commun. 2024;15(1):6617-6617. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michely J, Eldar E, Erdman A, Martin IM, Dolan RJ. Serotonin modulates asymmetric learning from reward and punishment in healthy human volunteers. https://doi.org/10.1038/s42003-022-03690-5. Commun Biol. 2022;5(1):812-812. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jepma M, Te Beek ET, Wagenmakers EJ, van Gerven JM, Nieuwenhuis S. The role of the noradrenergic system in the exploration-exploitation trade-off: a psychopharmacological study. https://doi.org/10.3389/fnhum.2010.00170. Front Hum Neurosci. 2010;4:170-170. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luo Q, Kanen JW, Bari A, et al. Comparable roles for serotonin in rats and humans for computations underlying flexible decision-making. https://doi.org/10.1038/s41386-023-01762-6. Neuropsychopharmacology. 2024;49(3):600-608. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger EC, Marsh AA, Buzas B, et al. The impact of tryptophan depletion and 5-HTTLPR genotype on passive avoidance and response reversal instrumental learning tasks. https://doi.org/10.1038/sj.npp.1301182. Neuropsychopharmacology. 2007;32(1):206-15. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cools R, Robinson OJ, Sahakian B. Acute tryptophan depletion in healthy volunteers enhances punishment prediction but does not affect reward prediction. https://doi.org/10.1038/sj.npp.1301598. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2008;33(9):2291-9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson OJ, Cools R, Sahakian BJ. Tryptophan depletion disinhibits punishment but not reward prediction: implications for resilience. https://doi.org/10.1007/s00213-011-2410-5. Psychopharmacology. 2012;219(2):599-605. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seymour B, Daw ND, Roiser JP, Dayan P, Dolan R. Serotonin selectively modulates reward value in human decision-making. https://doi.org/10.1523/JNEUROSCI.0053-12.2012. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2012;32(17):5833-42. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilger MD, Hellrung L, Neukam PT, et al. Arbitration between model-free and model-based control is not affected by transient changes in tonic serotonin levels. https://doi.org/10.1177/02698811231216325. J Psychopharmacol. 2024;38(2):178-187. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crean J, Richards JB, de Wit H. Effect of tryptophan depletion on impulsive behavior in men with or without a family history of alcoholism. https://doi.org/10.1016/s0166-4328(02)00132-8. Behav Brain Res. 2002;136(2):349-57. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanaka SC, Schweighofer N, Asahi S, et al. Serotonin differentially regulates short- and long-term prediction of rewards in the ventral and dorsal striatum. https://doi.org/10.1371/journal.pone.0001333. PLoS One. 2007;2(12):e1333-e1333. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweighofer N, Bertin M, Shishida K, et al. Low-serotonin levels increase delayed reward discounting in humans. https://doi.org/10.1523/jneurosci.4982-07.2008. J Neurosci. 2008;28(17):4528-32. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Worbe Y, Savulich G, Voon V, Fernandez-Egea E, Robbins TW. Serotonin depletion induces 'waiting impulsivity' on the human four-choice serial reaction time task: cross-species translational significance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 2014;39:1519-26. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cools R, Blackwell A, Clark L, Menzies L, Cox S, Robbins TW. Tryptophan depletion disrupts the motivational guidance of goal-directed behavior as a function of trait impulsivity. https://doi.org/10.1038/sj.npp.1300704. Neuropsychopharmacology. 2005;30(7):1362-73. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelm MK, Boettiger CA. Age moderates the effect of acute dopamine depletion on passive avoidance learning. https://doi.org/10.1016/j.pbb.2015.01.014. Pharmacol Biochem Behav. 2015;131:57-63. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crockett MJ, Clark L, Apergis-Schoute AM, Morein-Zamir S, Robbins TW. Serotonin modulates the effects of Pavlovian aversive predictions on response vigor. https://doi.org/10.1038/npp.2012.75. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2012;37(10):2244-52. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Frank MJ, O'Reilly RC. A mechanistic account of striatal dopamine function in human cognition: psychopharmacological studies with cabergoline and haloperidol. https://doi.org/10.1037/0735-7044.120.3.497. Behavioral neuroscience. 2006;120(3):497-517. </t>
   </si>
   <si>
     <t xml:space="preserve">Pessiglione M, Seymour B, Flandin G, Dolan RJ, Frith CD. Dopamine-dependent prediction errors underpin reward-seeking behaviour in humans. https://doi.org/10.1038/nature05051. Nature. 2006;442(7106):1042-5. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bayer HM, Glimcher PW. Midbrain dopamine neurons encode a quantitative reward prediction error signal. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Neuron</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Jul 7 2005;47(1):129-41. doi:10.1016/j.neuron.2005.05.020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tortora F, Hadipour AL, Battaglia S, Falzone A, Avenanti A, Vicario CM. The Role of Serotonin in Fear Learning and Memory: A Systematic Review of Human Studies. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Brain Sci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Aug 12 2023;13(8)doi:10.3390/brainsci13081197</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Collins AG, Frank MJ. How much of reinforcement learning is working memory, not reinforcement learning? A behavioral, computational, and neurogenetic analysis. https://doi.org/10.1111/j.1460-9568.2011.07980.x. Eur J Neurosci. 2012;35(7):1024-35. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rock PL, Roiser JP, Riedel WJ, Blackwell AD. Cognitive impairment in depression: a systematic review and meta-analysis. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Psychol Med</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Jul 2014;44(10):2029-40. doi:10.1017/s0033291713002535</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Malamud J, Lewis G, Moutoussis M, et al. The selective serotonin reuptake inhibitor sertraline alters learning from aversive reinforcements in patients with depression: evidence from a randomized controlled trial. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Psychol Med</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Jul 2024;54(10):2719-2731. doi:10.1017/s0033291724000837</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Moutoussis M, Garzón B, Neufeld S, et al. Decision-making ability, psychopathology, and brain connectivity. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Neuron</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Jun 16 2021;109(12):2025-2040.e7. doi:10.1016/j.neuron.2021.04.019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pike AC, Tan KHT, Tromblee H, Wing M, Robinson OJ. Test-Retest Reliability of Two Computationally-Characterised Affective Bias Tasks. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comput Psychiatr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. 2024;8(1):217-232. doi:10.5334/cpsy.92</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zorowitz S, Niv Y. Improving the Reliability of Cognitive Task Measures: A Narrative Review. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Biol Psychiatry Cogn Neurosci Neuroimaging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Aug 2023;8(8):789-797. doi:10.1016/j.bpsc.2023.02.004</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamid AA, Pettibone JR, Mabrouk OS, et al. Mesolimbic dopamine signals the value of work. https://doi.org/10.1038/nn.4173. Nat Neurosci. 2016;19(1):117-26. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castrellon JJ, Meade J, Greenwald L, Hurst K, Samanez-Larkin GR. Dopaminergic modulation of reward discounting in healthy rats: a systematic review and meta-analysis. https://doi.org/10.1007/s00213-020-05723-5. Psychopharmacology (Berl). 2021;238(3):711-723. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costello H, Berry AJ, Reeves S, et al. Disrupted reward processing in Parkinson's disease and its relationship with dopamine state and neuropsychiatric syndromes: a systematic review and meta-analysis. https://doi.org/10.1136/jnnp-2021-327762. J Neurol Neurosurg Psychiatry. 2022;93(5):555-562. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westbrook A, van den Bosch R, Maatta JI, et al. Dopamine promotes cognitive effort by biasing the benefits versus costs of cognitive work. https://doi.org/10.1126/science.aaz5891. Science (New York, NY). 2020;367(6484):1362-1366. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Miyazaki KW, Miyazaki K, Tanaka KF, et al. Optogenetic activation of dorsal raphe serotonin neurons enhances patience for future rewards. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curr Biol</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Sep 8 2014;24(17):2033-40. doi:10.1016/j.cub.2014.07.041</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnow BA, Blasey C, Williams LM, et al. Depression Subtypes in Predicting Antidepressant Response: A Report From the iSPOT-D Trial. https://doi.org/10.1176/appi.ajp.2015.14020181. Am J Psychiatry. 2015;172(8):743-50. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chekroud AM, Hawrilenko M, Loho H, et al. Illusory generalizability of clinical prediction models. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Jan 12 2024;383(6679):164-167. doi:10.1126/science.adg8538</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lan DCL, Browning M. What Can Reinforcement Learning Models of Dopamine and Serotonin Tell Us about the Action of Antidepressants? https://doi.org/10.5334/cpsy.83. Comput Psychiatr. 2022;6(1):166-188. </t>
-  </si>
-  <si>
-    <t>Eckstein MK, Master SL, Xia L, Dahl RE, Wilbrecht L, Collins AGE. The interpretation of computational model parameters depends on the context. https://doi.org/10.7554/eLife.75474. Elife. 2022;11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cools R, D'Esposito M. Inverted-U-shaped dopamine actions on human working memory and cognitive control. https://doi.org/10.1016/j.biopsych.2011.03.028. Biol Psychiatry. 2011;69(12):e113-25. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kanen JW, Apergis-Schoute AM, Yellowlees R, et al. Serotonin depletion impairs both Pavlovian and instrumental reversal learning in healthy humans. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mol Psychiatry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Dec 2021;26(12):7200-7210. doi:10.1038/s41380-021-01240-9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dreher JC, Schmidt PJ, Kohn P, Furman D, Rubinow D, Berman KF. Menstrual cycle phase modulates reward-related neural function in women. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proc Natl Acad Sci U S A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Feb 13 2007;104(7):2465-70. doi:10.1073/pnas.0605569104</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Faulkner P, Deakin JF. The role of serotonin in reward, punishment and behavioural inhibition in humans: insights from studies with acute tryptophan depletion. https://doi.org/10.1016/j.neubiorev.2014.07.024. Neurosci Biobehav Rev. 2014;46 Pt 3:365-78. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jocham G, Klein TA, Ullsperger M. Dopamine-mediated reinforcement learning signals in the striatum and ventromedial prefrontal cortex underlie value-based choices. https://doi.org/10.1523/jneurosci.3904-10.2011. J Neurosci. 2011;31(5):1606-13. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admon R, Kaiser RH, Dillon DG, et al. Dopaminergic Enhancement of Striatal Response to Reward in Major Depression. https://doi.org/10.1176/appi.ajp.2016.16010111. Am J Psychiatry. 2017;174(4):378-386. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsh AEL, Huneke NTM, Brown R, Browning M, Cowen P, Harmer CJ. A Dissociation of the Acute Effects of Bupropion on Positive Emotional Processing and Reward Processing in Healthy Volunteers. https://doi.org/10.3389/fpsyt.2018.00482. Front Psychiatry. 2018;9:482-482. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernacer J, Corlett PR, Ramachandra P, et al. Methamphetamine-induced disruption of frontostriatal reward learning signals: relation to psychotic symptoms. https://doi.org/10.1176/appi.ajp.2013.12070978. The American journal of psychiatry. 2013;170(11):1326-34. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westbrook A, van den Bosch R, Hofmans L, et al. Striatal Dopamine Can Enhance Learning, Both Fast and Slow, and Also Make it Cheaper. https://doi.org/10.1101/2024.02.14.580392. bioRxiv. 2024:2024.02.14.580392-2024.02.14.580392. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howlett JR, Huang H, Hysek CM, Paulus MP. The effect of single-dose methylphenidate on the rate of error-driven learning in healthy males: a randomized controlled trial. https://doi.org/10.1007/s00213-017-4723-5. Psychopharmacology (Berl). 2017;234(22):3353-3360. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addicott MA, Pearson JM, Schechter JC, Sapyta JJ, Weiss MD, Kollins SH. Attention-deficit/hyperactivity disorder and the explore/exploit trade-off. https://doi.org/10.1038/s41386-020-00881-8. Neuropsychopharmacology. 2021;46(3):614-621. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellebaum C, Kuchinke L, Roser P. Modafinil alters decision making based on feedback history - a randomized placebo-controlled double blind study in humans. https://doi.org/10.1177/0269881116668591. Journal of psychopharmacology (Oxford, England). 2017;31(2):243-249. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jansen M, Lockwood PL, Cutler J, de Bruijn ERA. l-DOPA and oxytocin influence the neurocomputational mechanisms of self-benefitting and prosocial reinforcement learning. https://doi.org/10.1016/j.neuroimage.2023.119983. Neuroimage. 2023;270:119983-119983. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weis T, Puschmann S, Brechmann A, Thiel CM. Effects of L-dopa during auditory instrumental learning in humans. https://doi.org/10.1371/journal.pone.0052504. PLoS One. 2012;7(12):e52504-e52504. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chakroun K, Wiehler A, Wagner B, et al. Dopamine regulates decision thresholds in human reinforcement learning in males. https://doi.org/10.1038/s41467-023-41130-y. Nat Commun. 2023;14(1):5369-5369. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halahakoon DC, Kaltenboeck A, Martens M, et al. Pramipexole Enhances Reward Learning by Preserving Value Estimates. https://doi.org/10.1016/j.biopsych.2023.05.023. Biol Psychiatry. 2024;95(3):286-296. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jocham G, Klein TA, Ullsperger M. Differential modulation of reinforcement learning by D2 dopamine and NMDA glutamate receptor antagonism. https://doi.org/10.1523/JNEUROSCI.0757-14.2014. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2014;34(39):13151-62. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahnt T, Weber SC, Haker H, Robbins TW, Tobler PN. Dopamine D2-receptor blockade enhances decoding of prefrontal signals in humans. https://doi.org/10.1523/jneurosci.4182-14.2015. J Neurosci. 2015;35(9):4104-11. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Murray GK, Knolle F, Ersche KD, et al. Dopaminergic drug treatment remediates exaggerated cingulate prediction error responses in obsessive-compulsive disorder. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Psychopharmacology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. 2019;236:2325-2336. </t>
-    </r>
-  </si>
-  <si>
-    <t>Mikus N, Korb S, Massaccesi C, et al. Effects of dopamine D2/3 and opioid receptor antagonism on the trade-off between model-based and model-free behaviour in healthy volunteers. https://doi.org/10.7554/eLife.79661. eLife. 2022;11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cremer A, Kalbe F, Müller JC, Wiedemann K, Schwabe L. Disentangling the roles of dopamine and noradrenaline in the exploration-exploitation tradeoff during human decision-making. https://doi.org/10.1038/s41386-022-01517-9. Neuropsychopharmacology. 2023;48(7):1078-1086. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diederen KM, Ziauddeen H, Vestergaard MD, Spencer T, Schultz W, Fletcher PC. Dopamine Modulates Adaptive Prediction Error Coding in the Human Midbrain and Striatum. https://doi.org/10.1523/jneurosci.1979-16.2016. J Neurosci. 2017;37(7):1708-1720. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haarsma J, Fletcher PC, Griffin JD, et al. Precision weighting of cortical unsigned prediction error signals benefits learning, is mediated by dopamine, and is impaired in psychosis. https://doi.org/10.1038/s41380-020-0803-8. Mol Psychiatry. 2021;26(9):5320-5333. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eisenegger C, Naef M, Linssen A, et al. Role of dopamine D2 receptors in human reinforcement learning. https://doi.org/10.1038/npp.2014.84. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2014;39(10):2366-75. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grob S, Pizzagalli DA, Dutra SJ, et al. Dopamine-related deficit in reward learning after catecholamine depletion in unmedicated, remitted subjects with bulimia nervosa. https://doi.org/10.1038/npp.2012.41. Neuropsychopharmacology. 2012;37(8):1945-52. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cox SM, Frank MJ, Larcher K, et al. Striatal D1 and D2 signaling differentially predict learning from positive and negative outcomes. https://doi.org/10.1016/j.neuroimage.2014.12.070. Neuroimage. 2015;109:95-101. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizzagalli DA, Evins AE, Schetter EC, et al. Single dose of a dopamine agonist impairs reinforcement learning in humans: behavioral evidence from a laboratory-based measure of reward responsiveness. https://doi.org/10.1007/s00213-007-0957-y. Psychopharmacology. 2008;196(2):221-32. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagner B, Clos M, Sommer T, Peters J. Dopaminergic Modulation of Human Intertemporal Choice: A Diffusion Model Analysis Using the D2-Receptor Antagonist Haloperidol. https://doi.org/10.1523/jneurosci.0592-20.2020. J Neurosci. 2020;40(41):7936-7948. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfanian Abdoust M, Froböse MI, Schnitzler A, Schreivogel E, Jocham G. Dopamine and acetylcholine have distinct roles in delay- and effort-based decision-making in humans. https://doi.org/10.1371/journal.pbio.3002714. PLoS Biol. 2024;22(7):e3002714-e3002714. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Wit H, Enggasser JL, Richards JB. Acute administration of d-amphetamine decreases impulsivity in healthy volunteers. https://doi.org/10.1016/s0893-133x(02)00343-3. Neuropsychopharmacology. 2002;27(5):813-25. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wardle MC, Treadway MT, Mayo LM, Zald DH, de Wit H. Amping up effort: effects of d-amphetamine on human effort-based decision-making. https://doi.org/10.1523/JNEUROSCI.4387-11.2011. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2011;31(46):16597-602. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soder HE, Cooper JA, Lopez-Gamundi P, et al. Dose-response effects of d-amphetamine on effort-based decision-making and reinforcement learning. https://doi.org/10.1038/s41386-020-0779-8. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2021;46(6):1078-1085. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daood M, Peled-Avron L, Ben-Hayun R, et al. Fronto-striatal connectivity patterns account for the impact of methylphenidate on choice impulsivity among healthy adults. https://doi.org/10.1016/j.neuropharm.2022.109190. Neuropharmacology. 2022;216:109190-109190. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pine A, Shiner T, Seymour B, Dolan RJ. Dopamine, time, and impulsivity in humans. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Journal of neuroscience : the official journal of the Society for Neuroscience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. 2010;30:8888-96. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith E, Theis H, van Eimeren T, et al. Dopamine and temporal discounting: revisiting pharmacology and individual differences. https://doi.org/10.1101/2024.08.28.610170. bioRxiv. 2024:2024.08.28.610170-2024.08.28.610170. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayser AS, Allen DC, Navarro-Cebrian A, Mitchell JM, Fields HL. Dopamine, corticostriatal connectivity, and intertemporal choice. https://doi.org/10.1523/jneurosci.1180-12.2012. J Neurosci. 2012;32(27):9402-9. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weber SC, Beck-Schimmer B, Kajdi ME, Müller D, Tobler PN, Quednow BB. Dopamine D2/3- and μ-opioid receptor antagonists reduce cue-induced responding and reward impulsivity in humans. https://doi.org/10.1038/tp.2016.113. Transl Psychiatry. 2016;6(7):e850-e850. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelm MK, Boettiger CA. Effects of acute dopamine precusor depletion on immediate reward selection bias and working memory depend on catechol-O-methyltransferase genotype. https://doi.org/10.1162/jocn_a_00464. J Cogn Neurosci. 2013;25(12):2061-71. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikeda Y, Funayama T, Tateno A, Fukayama H, Okubo Y, Suzuki H. Bupropion increases activation in nucleus accumbens during anticipation of monetary reward. https://doi.org/10.1007/s00213-019-05337-6. Psychopharmacology (Berl). 2019;236(12):3655-3665. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grimm O, Nägele M, Küpper-Tetzel L, de Greck M, Plichta M, Reif A. No effect of a dopaminergic modulation fMRI task by amisulpride and L-DOPA on reward anticipation in healthy volunteers. https://doi.org/10.1007/s00213-020-05693-8. Psychopharmacology (Berl). 2021;238(5):1333-1342. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Michely J, Viswanathan S, Hauser TU, Delker L, Dolan RJ, Grefkes C. The role of dopamine in dynamic effort-reward integration. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. 2020;45:1448-1453. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Beierholm U, Guitart-Masip M, Economides M, et al. Dopamine modulates reward-related vigor. https://doi.org/10.1038/npp.2013.48. Neuropsychopharmacology. 2013;38(8):1495-503. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehta MA, Swainson R, Ogilvie AD, Sahakian J, Robbins TW. Improved short-term spatial memory but impaired reversal learning following the dopamine D(2) agonist bromocriptine in human volunteers. https://doi.org/10.1007/s002130100851. Psychopharmacology (Berl). 2001;159(1):10-20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au-Yeung SK, Halahakoon DC, Kaltenboeck A, Cowen P, Browning M, Manohar SG. The effects of pramipexole on motivational vigour during a saccade task: a placebo-controlled study in healthy adults. https://doi.org/10.1007/s00213-024-06567-z. Psychopharmacology (Berl). 2024;241(7):1365-1375. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graf H, Wiegers M, Metzger CD, Walter M, Abler B. Differential Noradrenergic Modulation of Monetary Reward and Visual Erotic Stimulus Processing. https://doi.org/10.3389/fpsyt.2018.00346. Front Psychiatry. 2018;9:346-346. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abler B, Erk S, Walter H. Human reward system activation is modulated by a single dose of olanzapine in healthy subjects in an event-related, double-blind, placebo-controlled fMRI study. https://doi.org/10.1007/s00213-006-0690-y. Psychopharmacology (Berl). 2007;191(3):823-33. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehta MA, Gumaste D, Montgomery AJ, McTavish SF, Grasby PM. The effects of acute tyrosine and phenylalanine depletion on spatial working memory and planning in healthy volunteers are predicted by changes in striatal dopamine levels. https://doi.org/10.1007/s00213-004-2128-8. Psychopharmacology (Berl). 2005;180(4):654-63. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guitart-Masip M, Chowdhury R, Sharot T, Dayan P, Duzel E, Dolan RJ. Action controls dopaminergic enhancement of reward representations. https://doi.org/10.1073/pnas.1202229109. Proceedings of the National Academy of Sciences of the United States of America. 2012;109(19):7511-6. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guitart-Masip M, Economides M, Huys QJ, et al. Differential, but not opponent, effects of L -DOPA and citalopram on action learning with reward and punishment. https://doi.org/10.1007/s00213-013-3313-4. Psychopharmacology (Berl). 2014;231(5):955-66. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholz V, Hook RW, Kandroodi MR, et al. Cortical dopamine reduces the impact of motivational biases governing automated behaviour. https://doi.org/10.1038/s41386-022-01291-8. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2022;47(8):1503-1512. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebart MN, Glascher J. Serotonin and dopamine differentially affect appetitive and aversive general Pavlovian-to-instrumental transfer. https://doi.org/10.1007/s00213-014-3682-3. Psychopharmacology. 2015;232(2):437-51. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colwell MJ, Tagomori H, Shang F, et al. Direct serotonin release in humans shapes aversive learning and inhibition. https://doi.org/10.1038/s41467-024-50394-x. Nat Commun. 2024;15(1):6617-6617. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michely J, Eldar E, Erdman A, Martin IM, Dolan RJ. Serotonin modulates asymmetric learning from reward and punishment in healthy human volunteers. https://doi.org/10.1038/s42003-022-03690-5. Commun Biol. 2022;5(1):812-812. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jepma M, Te Beek ET, Wagenmakers EJ, van Gerven JM, Nieuwenhuis S. The role of the noradrenergic system in the exploration-exploitation trade-off: a psychopharmacological study. https://doi.org/10.3389/fnhum.2010.00170. Front Hum Neurosci. 2010;4:170-170. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luo Q, Kanen JW, Bari A, et al. Comparable roles for serotonin in rats and humans for computations underlying flexible decision-making. https://doi.org/10.1038/s41386-023-01762-6. Neuropsychopharmacology. 2024;49(3):600-608. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finger EC, Marsh AA, Buzas B, et al. The impact of tryptophan depletion and 5-HTTLPR genotype on passive avoidance and response reversal instrumental learning tasks. https://doi.org/10.1038/sj.npp.1301182. Neuropsychopharmacology. 2007;32(1):206-15. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cools R, Robinson OJ, Sahakian B. Acute tryptophan depletion in healthy volunteers enhances punishment prediction but does not affect reward prediction. https://doi.org/10.1038/sj.npp.1301598. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2008;33(9):2291-9. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson OJ, Cools R, Sahakian BJ. Tryptophan depletion disinhibits punishment but not reward prediction: implications for resilience. https://doi.org/10.1007/s00213-011-2410-5. Psychopharmacology. 2012;219(2):599-605. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seymour B, Daw ND, Roiser JP, Dayan P, Dolan R. Serotonin selectively modulates reward value in human decision-making. https://doi.org/10.1523/JNEUROSCI.0053-12.2012. The Journal of neuroscience : the official journal of the Society for Neuroscience. 2012;32(17):5833-42. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilger MD, Hellrung L, Neukam PT, et al. Arbitration between model-free and model-based control is not affected by transient changes in tonic serotonin levels. https://doi.org/10.1177/02698811231216325. J Psychopharmacol. 2024;38(2):178-187. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crean J, Richards JB, de Wit H. Effect of tryptophan depletion on impulsive behavior in men with or without a family history of alcoholism. https://doi.org/10.1016/s0166-4328(02)00132-8. Behav Brain Res. 2002;136(2):349-57. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanaka SC, Schweighofer N, Asahi S, et al. Serotonin differentially regulates short- and long-term prediction of rewards in the ventral and dorsal striatum. https://doi.org/10.1371/journal.pone.0001333. PLoS One. 2007;2(12):e1333-e1333. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweighofer N, Bertin M, Shishida K, et al. Low-serotonin levels increase delayed reward discounting in humans. https://doi.org/10.1523/jneurosci.4982-07.2008. J Neurosci. 2008;28(17):4528-32. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Worbe Y, Savulich G, Voon V, Fernandez-Egea E, Robbins TW. Serotonin depletion induces 'waiting impulsivity' on the human four-choice serial reaction time task: cross-species translational significance. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. 2014;39:1519-26. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cools R, Blackwell A, Clark L, Menzies L, Cox S, Robbins TW. Tryptophan depletion disrupts the motivational guidance of goal-directed behavior as a function of trait impulsivity. https://doi.org/10.1038/sj.npp.1300704. Neuropsychopharmacology. 2005;30(7):1362-73. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Roiser JP, Blackwell AD, Cools R, et al. Serotonin transporter polymorphism mediates vulnerability to loss of incentive motivation following acute tryptophan depletion. https://doi.org/10.1038/sj.npp.1301055. Neuropsychopharmacology. 2006;31(10):2264-72. </t>
   </si>
   <si>
     <t xml:space="preserve">Steding J, Ritschel F, Boehm I, et al. The effects of acute tryptophan depletion on instrumental reward learning in anorexia nervosa - an fMRI study. https://doi.org/10.1017/s0033291721005493. Psychol Med. 2023;53(8):3426-3436. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelm MK, Boettiger CA. Age moderates the effect of acute dopamine depletion on passive avoidance learning. https://doi.org/10.1016/j.pbb.2015.01.014. Pharmacol Biochem Behav. 2015;131:57-63. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crockett MJ, Clark L, Apergis-Schoute AM, Morein-Zamir S, Robbins TW. Serotonin modulates the effects of Pavlovian aversive predictions on response vigor. https://doi.org/10.1038/npp.2012.75. Neuropsychopharmacology : official publication of the American College of Neuropsychopharmacology. 2012;37(10):2244-52. </t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA84CDE-A834-D843-A76B-F64BDDAA0393}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1511,7 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1546,7 +1519,7 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1570,7 +1543,7 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1586,7 +1559,7 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1594,7 +1567,7 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1602,7 +1575,7 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1610,7 +1583,7 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1618,7 +1591,7 @@
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1634,7 +1607,7 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1650,7 +1623,7 @@
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1674,7 +1647,7 @@
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1698,7 +1671,7 @@
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1706,8 +1679,8 @@
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
+      <c r="B57" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1715,7 +1688,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1723,7 +1696,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1731,7 +1704,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1739,7 +1712,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1747,7 +1720,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1755,7 +1728,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1763,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1771,7 +1744,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1779,7 +1752,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1787,7 +1760,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1795,7 +1768,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1803,7 +1776,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,15 +1784,15 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>69</v>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1827,15 +1800,15 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>71</v>
+      <c r="B73" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1843,7 +1816,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1851,7 +1824,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,7 +1832,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1840,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1875,7 +1848,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1883,7 +1856,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1891,7 +1864,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1899,7 +1872,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1907,7 +1880,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1888,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1931,7 +1904,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1939,15 +1912,15 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>84</v>
+      <c r="B87" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1955,15 +1928,15 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>86</v>
+      <c r="B89" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1944,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1987,7 +1960,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1995,15 +1968,15 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>91</v>
+      <c r="B94" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,15 +1984,15 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>93</v>
+      <c r="B96" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +2000,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2035,7 +2008,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2043,7 +2016,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2051,7 +2024,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2059,7 +2032,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,7 +2040,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -2075,7 +2048,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,7 +2056,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -2091,7 +2064,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2099,7 +2072,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,7 +2080,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2115,7 +2088,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2123,7 +2096,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -2131,7 +2104,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2139,7 +2112,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2147,7 +2120,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2155,7 +2128,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2163,7 +2136,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2171,7 +2144,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2179,7 +2152,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2187,15 +2160,15 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>114</v>
+      <c r="B118" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2203,15 +2176,15 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>116</v>
+      <c r="B120" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2219,127 +2192,118 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>122</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>123</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://doi.org/10.1016/s0140-6736(17)32802-7" xr:uid="{47CF6207-D580-BA47-998E-8E626361EBEE}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://doi.org/10.1001/jamapsychiatry.2020.2139" xr:uid="{6CCA43A5-FE2D-8D4E-92F5-EB278DC6D714}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://doi.org/10.1001/jamapsychiatry.2022.0051" xr:uid="{5E7F3473-6A79-3548-9A93-6BF1CEAD86F8}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://doi.org/10.1038/s41586-024-08412-x" xr:uid="{19F1EA1C-234C-8E4C-A80D-A29E3F25D1A2}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://doi.org/10.1126/science.275.5306.1593" xr:uid="{BE03805F-F2CD-2749-A17C-B6623FD07DC6}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://doi.org/10.1176/ajp.2006.163.11.1905" xr:uid="{40971771-1C37-514E-BB85-1726132793EB}"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://doi.org/10.1038/s41583-018-0029-9" xr:uid="{364ED8E1-B041-264A-98E9-56ACD9D13B1F}"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://doi.org/10.1038/nature09588" xr:uid="{702ED3F5-2F14-6848-B423-99527F23DE95}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://doi.org/10.1038/nn.3413" xr:uid="{CEB857DE-534B-8B42-B832-1F9B92267493}"/>
-    <hyperlink ref="B15" r:id="rId10" display="https://doi.org/10.1016/j.neubiorev.2017.06.003" xr:uid="{8E2A74C9-BACF-0049-90D5-B486AD96B286}"/>
-    <hyperlink ref="B16" r:id="rId11" display="https://doi.org/10.1038/npp.2010.165" xr:uid="{DA4EB2A3-9CAD-7945-88A2-BC57550DE531}"/>
-    <hyperlink ref="B17" r:id="rId12" display="https://doi.org/10.1523/jneurosci.16-05-01936.1996" xr:uid="{F131C499-2A59-884C-93A9-F796F2D68262}"/>
-    <hyperlink ref="B18" r:id="rId13" display="https://doi.org/10.1037/a0037015" xr:uid="{EB2A63E9-E4E7-DA45-AEB3-685989339298}"/>
-    <hyperlink ref="B19" r:id="rId14" display="https://doi.org/10.1177/026988119100500414" xr:uid="{0A2F0E05-B074-8B45-BA67-12D495972DB4}"/>
-    <hyperlink ref="B20" r:id="rId15" display="https://doi.org/10.7554/eLife.06346" xr:uid="{C6DAFC6F-BCCE-0945-9C38-93A5E8450BCD}"/>
-    <hyperlink ref="B22" r:id="rId16" display="https://doi.org/10.1038/npp.2010.151" xr:uid="{817862DF-3560-5B45-889C-81E17708C2A9}"/>
-    <hyperlink ref="B23" r:id="rId17" display="https://doi.org/10.1038/npp.2010.121" xr:uid="{FD8EFA5F-30B0-B04B-A163-18808761CA07}"/>
-    <hyperlink ref="B25" r:id="rId18" display="https://doi.org/10.1523/jneurosci.2749-13.2013" xr:uid="{3B4A5EF9-146A-854E-995E-EFC6D1A62468}"/>
-    <hyperlink ref="B26" r:id="rId19" display="https://doi.org/10.1016/j.neuroscience.2012.03.065" xr:uid="{6EF0E267-9C05-0C49-B2A1-8184298C3344}"/>
-    <hyperlink ref="B27" r:id="rId20" display="https://doi.org/10.1016/s0893-6080(02)00044-8" xr:uid="{C6AD40C2-5767-2548-8FAA-CD5416A3E7BF}"/>
-    <hyperlink ref="B28" r:id="rId21" display="https://doi.org/10.7554/eLife.17282" xr:uid="{7C65F127-64E6-F746-8604-9FE5DAD2BCB7}"/>
-    <hyperlink ref="B29" r:id="rId22" display="https://doi.org/10.1007/7854_2015_383" xr:uid="{C10A0146-7688-DB4B-80FE-27FB407EAF1B}"/>
-    <hyperlink ref="B30" r:id="rId23" display="https://doi.org/10.1017/S0140525X00022871" xr:uid="{33A051A1-BDFD-FA40-94AF-2AA2587D5E47}"/>
-    <hyperlink ref="B31" r:id="rId24" display="https://doi.org/10.1111/j.1460-9568.2012.08026.x" xr:uid="{97E82E13-C0CD-F941-84A5-6869503737DF}"/>
-    <hyperlink ref="B32" r:id="rId25" display="https://doi.org/10.1007/s00213-006-0502-4" xr:uid="{8211BFD0-07A4-8C4E-A875-FE4D1CA582CF}"/>
-    <hyperlink ref="B33" r:id="rId26" display="https://doi.org/10.1136/bmj.n71" xr:uid="{96C0F9C5-05E9-9F49-812B-35B9BB0DCD07}"/>
-    <hyperlink ref="B34" r:id="rId27" display="https://doi.org/10.18637/jss.v036.i03" xr:uid="{37F6393E-56FB-B441-AA5B-E7D964E7E05D}"/>
-    <hyperlink ref="B36" r:id="rId28" display="https://doi.org/10.1037/0735-7044.120.3.497" xr:uid="{C30A55ED-EF05-A241-A7E9-EC823A422445}"/>
-    <hyperlink ref="B37" r:id="rId29" display="https://doi.org/10.1038/nature05051" xr:uid="{CFBB8496-4515-5A4B-9D2C-60EAD65000E6}"/>
-    <hyperlink ref="B40" r:id="rId30" display="https://doi.org/10.1111/j.1460-9568.2011.07980.x" xr:uid="{B751A733-4CFC-DF4E-B0B8-AAC72B8E0D65}"/>
-    <hyperlink ref="B46" r:id="rId31" display="https://doi.org/10.1038/nn.4173" xr:uid="{B34CA10E-E62C-3049-8401-8AE509BC3C78}"/>
-    <hyperlink ref="B47" r:id="rId32" display="https://doi.org/10.1007/s00213-020-05723-5" xr:uid="{27074BDE-A138-D140-9BE9-00AFA1A98E06}"/>
-    <hyperlink ref="B48" r:id="rId33" display="https://doi.org/10.1136/jnnp-2021-327762" xr:uid="{3E7626F5-CDD1-8144-B165-A9BAD5E68318}"/>
-    <hyperlink ref="B49" r:id="rId34" display="https://doi.org/10.1126/science.aaz5891" xr:uid="{F7C7BFFB-E3CD-2B44-850B-EB366B86E06D}"/>
-    <hyperlink ref="B51" r:id="rId35" display="https://doi.org/10.1176/appi.ajp.2015.14020181" xr:uid="{E3609069-B726-9744-9F29-B4F2B3D2C924}"/>
-    <hyperlink ref="B53" r:id="rId36" display="https://doi.org/10.5334/cpsy.83" xr:uid="{DD7F0AA0-B3F2-CB48-AE10-7B2D61015BF6}"/>
-    <hyperlink ref="B54" r:id="rId37" display="https://doi.org/10.7554/eLife.75474" xr:uid="{53CF08E2-4AD0-CE49-BABC-66954D9A54D9}"/>
-    <hyperlink ref="B55" r:id="rId38" display="https://doi.org/10.1016/j.biopsych.2011.03.028" xr:uid="{55697133-408B-BD45-AC50-B2D8809EF5C6}"/>
-    <hyperlink ref="B58" r:id="rId39" display="https://doi.org/10.1016/j.neubiorev.2014.07.024" xr:uid="{D871266E-A0D7-364A-98A8-EC853885B78E}"/>
-    <hyperlink ref="B59" r:id="rId40" display="https://doi.org/10.1523/jneurosci.3904-10.2011" xr:uid="{D5CBDCCC-0C93-7E40-AB28-CE5D34F13C4C}"/>
-    <hyperlink ref="B60" r:id="rId41" display="https://doi.org/10.1176/appi.ajp.2016.16010111" xr:uid="{94BDD4F1-E975-4545-9534-39FE6827A853}"/>
-    <hyperlink ref="B61" r:id="rId42" display="https://doi.org/10.3389/fpsyt.2018.00482" xr:uid="{351551A6-881D-6D40-8E50-F3D66799F177}"/>
-    <hyperlink ref="B62" r:id="rId43" display="https://doi.org/10.1176/appi.ajp.2013.12070978" xr:uid="{3C9494C7-39B7-3F4E-87F5-001A1D602BA3}"/>
-    <hyperlink ref="B63" r:id="rId44" display="https://doi.org/10.1101/2024.02.14.580392" xr:uid="{AEA42E6E-9D62-3749-B21E-0BE62BCB60E3}"/>
-    <hyperlink ref="B64" r:id="rId45" display="https://doi.org/10.1007/s00213-017-4723-5" xr:uid="{36450910-EA27-DB43-8220-825033D1679D}"/>
-    <hyperlink ref="B65" r:id="rId46" display="https://doi.org/10.1038/s41386-020-00881-8" xr:uid="{90B0CC8C-9C7F-3344-BB3B-47AF331E98AC}"/>
-    <hyperlink ref="B66" r:id="rId47" display="https://doi.org/10.1177/0269881116668591" xr:uid="{AA4A0AEC-DC76-1041-B808-237D47997690}"/>
-    <hyperlink ref="B67" r:id="rId48" display="https://doi.org/10.1016/j.neuroimage.2023.119983" xr:uid="{A5D54210-83C6-4B4C-803D-E33B0BA84FA2}"/>
-    <hyperlink ref="B68" r:id="rId49" display="https://doi.org/10.1371/journal.pone.0052504" xr:uid="{3A20CC73-76B9-2B46-AC77-9EE5B6D3973E}"/>
-    <hyperlink ref="B69" r:id="rId50" display="https://doi.org/10.1038/s41467-023-41130-y" xr:uid="{AE4B27E7-2082-8547-94CD-A687EF7BA5EF}"/>
-    <hyperlink ref="B70" r:id="rId51" display="https://doi.org/10.1016/j.biopsych.2023.05.023" xr:uid="{1FB402BF-7350-4140-B733-69394FE5957D}"/>
-    <hyperlink ref="B71" r:id="rId52" display="https://doi.org/10.1523/JNEUROSCI.0757-14.2014" xr:uid="{64652D81-5AC4-A345-9E51-EFDAB1C24044}"/>
-    <hyperlink ref="B72" r:id="rId53" display="https://doi.org/10.1523/jneurosci.4182-14.2015" xr:uid="{1EB74D90-3489-2643-A010-41B1E7B49A7F}"/>
-    <hyperlink ref="B74" r:id="rId54" display="https://doi.org/10.7554/eLife.79661" xr:uid="{87C1A705-A903-2542-8D8D-6ED837B2A616}"/>
-    <hyperlink ref="B75" r:id="rId55" display="https://doi.org/10.1038/s41386-022-01517-9" xr:uid="{111D9ECB-61B7-8141-AAE8-D9BE9FE9BE65}"/>
-    <hyperlink ref="B76" r:id="rId56" display="https://doi.org/10.1523/jneurosci.1979-16.2016" xr:uid="{F60E045A-2E76-5B4E-84AC-C2CE44CF0D68}"/>
-    <hyperlink ref="B77" r:id="rId57" display="https://doi.org/10.1038/s41380-020-0803-8" xr:uid="{EE68F52D-1805-3C43-B558-56898E83D434}"/>
-    <hyperlink ref="B78" r:id="rId58" display="https://doi.org/10.1038/npp.2014.84" xr:uid="{A30103C1-391B-0347-A985-F3C87A00B682}"/>
-    <hyperlink ref="B79" r:id="rId59" display="https://doi.org/10.1038/npp.2012.41" xr:uid="{B1552289-32D4-7C4D-84C6-7C4FA1187898}"/>
-    <hyperlink ref="B80" r:id="rId60" display="https://doi.org/10.1016/j.neuroimage.2014.12.070" xr:uid="{18649EE0-7DFB-DC4B-B71C-8BB5FF2FFE14}"/>
-    <hyperlink ref="B81" r:id="rId61" display="https://doi.org/10.1007/s00213-007-0957-y" xr:uid="{38DE24F1-459D-0045-B93E-2AE52C20AF81}"/>
-    <hyperlink ref="B82" r:id="rId62" display="https://doi.org/10.1016/j.pbb.2015.01.014" xr:uid="{2473D3BB-E865-204B-9F2B-17B5CDBFEB51}"/>
-    <hyperlink ref="B83" r:id="rId63" display="https://doi.org/10.1523/jneurosci.0592-20.2020" xr:uid="{B4694E6D-481B-1F42-9BE2-29EB57EE82C2}"/>
-    <hyperlink ref="B84" r:id="rId64" display="https://doi.org/10.1371/journal.pbio.3002714" xr:uid="{17987379-1DF9-1444-93CD-1BDDEFBE5E97}"/>
-    <hyperlink ref="B85" r:id="rId65" display="https://doi.org/10.1016/s0893-133x(02)00343-3" xr:uid="{39693E3B-5FBB-154A-8545-7E9528DD3472}"/>
-    <hyperlink ref="B86" r:id="rId66" display="https://doi.org/10.1523/JNEUROSCI.4387-11.2011" xr:uid="{CD9E9D1B-FBB0-844D-9763-0101F995B991}"/>
-    <hyperlink ref="B87" r:id="rId67" display="https://doi.org/10.1038/s41386-020-0779-8" xr:uid="{60D7BA30-9A87-5048-ADFB-61E17C34ECE4}"/>
-    <hyperlink ref="B88" r:id="rId68" display="https://doi.org/10.1016/j.neuropharm.2022.109190" xr:uid="{ED9AFE09-CF4D-1943-B2A2-64B4280B2385}"/>
-    <hyperlink ref="B90" r:id="rId69" display="https://doi.org/10.1101/2024.08.28.610170" xr:uid="{19F9F155-1FB8-AD47-8DF3-3F1A9A1F39E5}"/>
-    <hyperlink ref="B91" r:id="rId70" display="https://doi.org/10.1523/jneurosci.1180-12.2012" xr:uid="{7C0FDD81-0EB1-C544-AE85-29E1499C2EF7}"/>
-    <hyperlink ref="B92" r:id="rId71" display="https://doi.org/10.1038/tp.2016.113" xr:uid="{CF8EF1F1-B8BC-5942-BBDC-4F0349A54EF8}"/>
-    <hyperlink ref="B93" r:id="rId72" display="https://doi.org/10.1162/jocn_a_00464" xr:uid="{76CE2201-184D-9C44-82FC-29BBF9801B14}"/>
-    <hyperlink ref="B94" r:id="rId73" display="https://doi.org/10.1007/s00213-019-05337-6" xr:uid="{A2AEF7FD-0F14-4C45-8A32-C60EDA1F425F}"/>
-    <hyperlink ref="B95" r:id="rId74" display="https://doi.org/10.1007/s00213-020-05693-8" xr:uid="{3862C99A-C00F-B64B-9DA0-B63AD8D3F7EF}"/>
-    <hyperlink ref="B97" r:id="rId75" display="https://doi.org/10.1038/npp.2013.48" xr:uid="{F67D449E-49D3-6044-A27E-CC830D1C443A}"/>
-    <hyperlink ref="B98" r:id="rId76" display="https://doi.org/10.1007/s002130100851" xr:uid="{9AE2D550-9C57-4E47-8CBA-200CE0754ADF}"/>
-    <hyperlink ref="B99" r:id="rId77" display="https://doi.org/10.1007/s00213-024-06567-z" xr:uid="{C03DDCC3-BC3A-4F4C-B0F8-400D703EE3C7}"/>
-    <hyperlink ref="B100" r:id="rId78" display="https://doi.org/10.3389/fpsyt.2018.00346" xr:uid="{B2B3D6E9-80DC-304C-A049-7CF280AB0D70}"/>
-    <hyperlink ref="B101" r:id="rId79" display="https://doi.org/10.1007/s00213-006-0690-y" xr:uid="{84B19223-24C6-8340-B0A6-FE736724C8C1}"/>
-    <hyperlink ref="B102" r:id="rId80" display="https://doi.org/10.1007/s00213-004-2128-8" xr:uid="{DDC5BDCE-1910-6C41-B2F1-C14125F4D7DD}"/>
-    <hyperlink ref="B103" r:id="rId81" display="https://doi.org/10.1073/pnas.1202229109" xr:uid="{F99F22A1-92BA-BB4B-95DF-DED33DE94CBB}"/>
-    <hyperlink ref="B104" r:id="rId82" display="https://doi.org/10.1007/s00213-013-3313-4" xr:uid="{CA8DBCF5-5ECB-3E4C-856C-DAE15A12A497}"/>
-    <hyperlink ref="B105" r:id="rId83" display="https://doi.org/10.1038/s41386-022-01291-8" xr:uid="{598D6AA0-8BB4-CE42-B698-EC8F00B66B46}"/>
-    <hyperlink ref="B106" r:id="rId84" display="https://doi.org/10.1007/s00213-014-3682-3" xr:uid="{09092EB1-BF8C-AD41-8680-91FE3FD9A017}"/>
-    <hyperlink ref="B107" r:id="rId85" display="https://doi.org/10.1038/s41467-024-50394-x" xr:uid="{4E0A5054-C736-D445-91AE-8971914F01F7}"/>
-    <hyperlink ref="B108" r:id="rId86" display="https://doi.org/10.1038/s42003-022-03690-5" xr:uid="{519ECF6C-D1AA-8341-BBD8-C5C5CB959928}"/>
-    <hyperlink ref="B109" r:id="rId87" display="https://doi.org/10.3389/fnhum.2010.00170" xr:uid="{3DC49912-DB62-184E-B6B3-0F13C9E557F7}"/>
-    <hyperlink ref="B110" r:id="rId88" display="https://doi.org/10.1038/s41386-023-01762-6" xr:uid="{1BEB8C89-EB4C-0048-BBC3-548CD9BF0444}"/>
-    <hyperlink ref="B111" r:id="rId89" display="https://doi.org/10.1038/sj.npp.1301182" xr:uid="{B2147DB1-48F7-2749-A1D6-5592B2BBF73C}"/>
-    <hyperlink ref="B112" r:id="rId90" display="https://doi.org/10.1038/sj.npp.1301598" xr:uid="{4F3E1CD9-A405-C64D-9282-44461B4CBE26}"/>
-    <hyperlink ref="B113" r:id="rId91" display="https://doi.org/10.1038/npp.2012.75" xr:uid="{0E46B53A-5C44-4240-A118-FB2EA66AF94B}"/>
-    <hyperlink ref="B114" r:id="rId92" display="https://doi.org/10.1007/s00213-011-2410-5" xr:uid="{CFBE8830-8AED-1541-A905-2F118199693D}"/>
-    <hyperlink ref="B115" r:id="rId93" display="https://doi.org/10.1523/JNEUROSCI.0053-12.2012" xr:uid="{84923434-FD9A-494B-B071-505C23099891}"/>
-    <hyperlink ref="B116" r:id="rId94" display="https://doi.org/10.1177/02698811231216325" xr:uid="{417D5118-3238-084C-911C-CB15545D18E0}"/>
-    <hyperlink ref="B117" r:id="rId95" display="https://doi.org/10.1016/s0166-4328(02)00132-8" xr:uid="{9C48491F-6EB6-A84D-979F-D18E4486C37B}"/>
-    <hyperlink ref="B118" r:id="rId96" display="https://doi.org/10.1371/journal.pone.0001333" xr:uid="{5A77ED8A-E6B1-3042-B5BE-BBD1DD6818D2}"/>
-    <hyperlink ref="B119" r:id="rId97" display="https://doi.org/10.1523/jneurosci.4982-07.2008" xr:uid="{06990279-8130-D242-BD14-266A6AC39730}"/>
-    <hyperlink ref="B121" r:id="rId98" display="https://doi.org/10.1038/sj.npp.1300704" xr:uid="{BFB22F74-473D-6241-AA57-8D20EE2CCF34}"/>
-    <hyperlink ref="B122" r:id="rId99" display="https://doi.org/10.1038/sj.npp.1301055" xr:uid="{03F870EB-113A-2C49-A0A7-C3DE2526CDC9}"/>
-    <hyperlink ref="B123" r:id="rId100" display="https://doi.org/10.1017/s0033291721005493" xr:uid="{DF67D917-6BEB-3144-B1F7-9C5C2C24196B}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://doi.org/10.1016/s0140-6736(17)32802-7" xr:uid="{1851193D-D381-9D4B-B3C3-0B737D2BF2B6}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://doi.org/10.1001/jamapsychiatry.2020.2139" xr:uid="{42064BB6-9CC2-094A-B0FE-72AD08616461}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://doi.org/10.1001/jamapsychiatry.2022.0051" xr:uid="{AA4253E9-E58A-F64F-944B-FD0A7626D295}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://doi.org/10.1038/s41586-024-08412-x" xr:uid="{3EE1CC89-9197-8446-9CB7-A2B3ED7A5104}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://doi.org/10.1126/science.275.5306.1593" xr:uid="{BAFD4B78-B938-BD45-89A4-4E5E86151928}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://doi.org/10.1176/ajp.2006.163.11.1905" xr:uid="{E73355F4-18EE-A14F-AB28-B45458B22770}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://doi.org/10.1038/s41583-018-0029-9" xr:uid="{B6B816A7-CAFF-3F42-B947-8BF9DBBB4734}"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://doi.org/10.1038/nature09588" xr:uid="{A54A3259-712C-0B4B-B056-0BE277260633}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://doi.org/10.1038/nn.3413" xr:uid="{A8FEFFC1-10EE-1C44-82B3-D8178FD6BD08}"/>
+    <hyperlink ref="B15" r:id="rId10" display="https://doi.org/10.1016/j.neubiorev.2017.06.003" xr:uid="{1D97CAA1-FF4E-344D-A5A8-E9FCB16F781F}"/>
+    <hyperlink ref="B16" r:id="rId11" display="https://doi.org/10.1038/npp.2010.165" xr:uid="{C0BE69D4-668E-5A46-A8F1-35A73923DD04}"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://doi.org/10.1523/jneurosci.16-05-01936.1996" xr:uid="{199AF4EC-1836-4146-8673-780E16B7D30B}"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://doi.org/10.1037/a0037015" xr:uid="{D8AC1E54-C4DA-8740-A55E-0181AB0E8127}"/>
+    <hyperlink ref="B19" r:id="rId14" display="https://doi.org/10.1177/026988119100500414" xr:uid="{B0530AC4-4DF4-0B4F-AE33-5F93C3C65A65}"/>
+    <hyperlink ref="B20" r:id="rId15" display="https://doi.org/10.7554/eLife.06346" xr:uid="{8B88F545-5E37-3A4B-97F0-793EAF0F7B11}"/>
+    <hyperlink ref="B22" r:id="rId16" display="https://doi.org/10.1038/npp.2010.151" xr:uid="{04141791-439C-9240-B294-589520270C11}"/>
+    <hyperlink ref="B23" r:id="rId17" display="https://doi.org/10.1038/npp.2010.121" xr:uid="{D7813922-D7DC-464E-8615-DF465AC2ECD0}"/>
+    <hyperlink ref="B25" r:id="rId18" display="https://doi.org/10.1523/jneurosci.2749-13.2013" xr:uid="{074C1795-A5A7-1A46-8B95-3D54B1587A78}"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://doi.org/10.1016/j.neuroscience.2012.03.065" xr:uid="{1F05CBF5-2B58-D04C-BD2C-A740E6B31F2A}"/>
+    <hyperlink ref="B27" r:id="rId20" display="https://doi.org/10.1016/s0893-6080(02)00044-8" xr:uid="{C85A723B-7AE0-EF46-888F-8EADDEA4FB6B}"/>
+    <hyperlink ref="B28" r:id="rId21" display="https://doi.org/10.7554/eLife.17282" xr:uid="{235CED08-7814-D344-A494-191E865FC6B3}"/>
+    <hyperlink ref="B29" r:id="rId22" display="https://doi.org/10.1007/7854_2015_383" xr:uid="{25454AD8-ECFB-2D46-9BCC-669D13775C74}"/>
+    <hyperlink ref="B30" r:id="rId23" display="https://doi.org/10.1017/S0140525X00022871" xr:uid="{D40CE7AC-B656-A940-B6D1-D9085D448F63}"/>
+    <hyperlink ref="B31" r:id="rId24" display="https://doi.org/10.1111/j.1460-9568.2012.08026.x" xr:uid="{69FB6596-DC54-6D4D-9475-44EF2D192843}"/>
+    <hyperlink ref="B32" r:id="rId25" display="https://doi.org/10.1007/s00213-006-0502-4" xr:uid="{DF8DBA1A-2805-B549-9F76-F83393FBBEB5}"/>
+    <hyperlink ref="B33" r:id="rId26" display="https://doi.org/10.1136/bmj.n71" xr:uid="{895C9DF8-D03D-CF45-832C-58848F6F3431}"/>
+    <hyperlink ref="B34" r:id="rId27" display="https://doi.org/10.18637/jss.v036.i03" xr:uid="{F94F5E1D-0683-B542-A827-CBAED339943C}"/>
+    <hyperlink ref="B42" r:id="rId28" display="https://doi.org/10.1038/nn.4173" xr:uid="{4D267071-4073-674F-9D95-54A0409B6CD7}"/>
+    <hyperlink ref="B43" r:id="rId29" display="https://doi.org/10.1007/s00213-020-05723-5" xr:uid="{BE5FE635-C5DA-F841-9449-14AF5AD3BAF9}"/>
+    <hyperlink ref="B44" r:id="rId30" display="https://doi.org/10.1136/jnnp-2021-327762" xr:uid="{2B704B17-4C41-4040-A223-101CCFA0824C}"/>
+    <hyperlink ref="B45" r:id="rId31" display="https://doi.org/10.1126/science.aaz5891" xr:uid="{19973A14-1ED1-E040-BC2E-E21DE19A6F43}"/>
+    <hyperlink ref="B47" r:id="rId32" display="https://doi.org/10.1176/appi.ajp.2015.14020181" xr:uid="{009461BF-7346-1040-B47A-4659C4383D77}"/>
+    <hyperlink ref="B49" r:id="rId33" display="https://doi.org/10.5334/cpsy.83" xr:uid="{420BCF29-A2DE-2747-BE80-5DDEABD62154}"/>
+    <hyperlink ref="B50" r:id="rId34" display="https://doi.org/10.7554/eLife.75474" xr:uid="{A7B10516-5EBB-2747-893C-EB339D752A23}"/>
+    <hyperlink ref="B51" r:id="rId35" display="https://doi.org/10.1016/j.biopsych.2011.03.028" xr:uid="{B3164AFC-3E14-384A-98A5-7FD9352BB473}"/>
+    <hyperlink ref="B54" r:id="rId36" display="https://doi.org/10.1016/j.neubiorev.2014.07.024" xr:uid="{90894ADE-7A81-C14B-9231-8A5D4D88EF95}"/>
+    <hyperlink ref="B55" r:id="rId37" display="https://doi.org/10.1523/jneurosci.3904-10.2011" xr:uid="{176CF9D4-9E4B-824E-9148-3F63F67B76FA}"/>
+    <hyperlink ref="B56" r:id="rId38" display="https://doi.org/10.1176/appi.ajp.2016.16010111" xr:uid="{4EA85EBD-6370-D34B-95C9-8FA8228DD4C6}"/>
+    <hyperlink ref="B57" r:id="rId39" display="https://doi.org/10.1037/0735-7044.120.3.497" xr:uid="{97A942DC-6494-734B-B292-3436DEA1D54A}"/>
+    <hyperlink ref="B58" r:id="rId40" display="https://doi.org/10.3389/fpsyt.2018.00482" xr:uid="{0FAACC4E-C363-5546-81EC-59729F8671CF}"/>
+    <hyperlink ref="B59" r:id="rId41" display="https://doi.org/10.1176/appi.ajp.2013.12070978" xr:uid="{C365D788-DFBE-E444-8982-CCDD945CD656}"/>
+    <hyperlink ref="B60" r:id="rId42" display="https://doi.org/10.1101/2024.02.14.580392" xr:uid="{F0373BF6-38C2-8C4C-B2FB-14D5F5FF586F}"/>
+    <hyperlink ref="B61" r:id="rId43" display="https://doi.org/10.1007/s00213-017-4723-5" xr:uid="{41E0B7F6-F143-C244-AE85-FCEE27B5BCDC}"/>
+    <hyperlink ref="B62" r:id="rId44" display="https://doi.org/10.1038/s41386-020-00881-8" xr:uid="{FDEA95C9-1E05-1142-9E1E-25646F4C1EF4}"/>
+    <hyperlink ref="B63" r:id="rId45" display="https://doi.org/10.1177/0269881116668591" xr:uid="{4F076798-E89F-CA4B-AB9E-D25B094CA7E3}"/>
+    <hyperlink ref="B64" r:id="rId46" display="https://doi.org/10.1038/nature05051" xr:uid="{B92BA04F-E82B-364F-9B89-49349E0CFEBD}"/>
+    <hyperlink ref="B65" r:id="rId47" display="https://doi.org/10.1016/j.neuroimage.2023.119983" xr:uid="{0F708C99-C791-6648-AFAF-1062C25A10B0}"/>
+    <hyperlink ref="B66" r:id="rId48" display="https://doi.org/10.1371/journal.pone.0052504" xr:uid="{8DE7966A-E1B3-9443-9CD3-71B5D9B3A20F}"/>
+    <hyperlink ref="B67" r:id="rId49" display="https://doi.org/10.1038/s41467-023-41130-y" xr:uid="{71072576-F0E4-584A-990E-502531EF5A3C}"/>
+    <hyperlink ref="B68" r:id="rId50" display="https://doi.org/10.1016/j.biopsych.2023.05.023" xr:uid="{97EFEDDF-6D48-1841-90D1-16809A099A22}"/>
+    <hyperlink ref="B69" r:id="rId51" display="https://doi.org/10.1523/JNEUROSCI.0757-14.2014" xr:uid="{7AA78AC1-98AD-B246-B82F-8D7433558A6E}"/>
+    <hyperlink ref="B70" r:id="rId52" display="https://doi.org/10.1523/jneurosci.4182-14.2015" xr:uid="{AA9D7DCA-582A-A94E-B512-41CC4C69DE18}"/>
+    <hyperlink ref="B72" r:id="rId53" display="https://doi.org/10.7554/eLife.79661" xr:uid="{922E133B-CE4C-0841-B990-96A43F279BD0}"/>
+    <hyperlink ref="B73" r:id="rId54" display="https://doi.org/10.1038/s41386-022-01517-9" xr:uid="{1AA085EE-0561-0543-A476-D83957B6130E}"/>
+    <hyperlink ref="B74" r:id="rId55" display="https://doi.org/10.1523/jneurosci.1979-16.2016" xr:uid="{7BF2F946-899E-E747-B146-BE8D7149D29D}"/>
+    <hyperlink ref="B75" r:id="rId56" display="https://doi.org/10.1038/s41380-020-0803-8" xr:uid="{24EAFD2B-BEC3-3441-8F1C-3B870C09C85D}"/>
+    <hyperlink ref="B76" r:id="rId57" display="https://doi.org/10.1038/npp.2014.84" xr:uid="{52CE94BB-E8F7-1E4A-9C52-B26F83B79A14}"/>
+    <hyperlink ref="B77" r:id="rId58" display="https://doi.org/10.1038/npp.2012.41" xr:uid="{C27BAA47-1617-D949-96DE-B3D0E3ECD2A9}"/>
+    <hyperlink ref="B78" r:id="rId59" display="https://doi.org/10.1016/j.neuroimage.2014.12.070" xr:uid="{7F545ED5-ED1E-8345-A1C1-8C29389E3F4F}"/>
+    <hyperlink ref="B79" r:id="rId60" display="https://doi.org/10.1007/s00213-007-0957-y" xr:uid="{3ACC9C5F-A8EC-8140-8B3E-4246D51D2235}"/>
+    <hyperlink ref="B80" r:id="rId61" display="https://doi.org/10.1016/j.pbb.2015.01.014" xr:uid="{23320C41-999D-7147-B676-5F7F1D1715FE}"/>
+    <hyperlink ref="B81" r:id="rId62" display="https://doi.org/10.1523/jneurosci.0592-20.2020" xr:uid="{76CF9BC8-2787-B74D-A8A4-5AC644B44FA4}"/>
+    <hyperlink ref="B82" r:id="rId63" display="https://doi.org/10.1371/journal.pbio.3002714" xr:uid="{AB09103A-18BF-0A40-B367-8BAD0DE03602}"/>
+    <hyperlink ref="B83" r:id="rId64" display="https://doi.org/10.1016/s0893-133x(02)00343-3" xr:uid="{E25B744C-6E77-F649-B423-A43CF7E697DC}"/>
+    <hyperlink ref="B84" r:id="rId65" display="https://doi.org/10.1523/JNEUROSCI.4387-11.2011" xr:uid="{A6C76AA4-F8ED-C948-A697-8F1B29F2CB0C}"/>
+    <hyperlink ref="B85" r:id="rId66" display="https://doi.org/10.1038/s41386-020-0779-8" xr:uid="{D7576000-65D3-AE44-A208-C008013370BD}"/>
+    <hyperlink ref="B86" r:id="rId67" display="https://doi.org/10.1016/j.neuropharm.2022.109190" xr:uid="{6AC80C10-9E8A-0948-9824-2546D59B5BC5}"/>
+    <hyperlink ref="B88" r:id="rId68" display="https://doi.org/10.1101/2024.08.28.610170" xr:uid="{3621B37D-0EAB-AF49-AE67-1F704C0D8F9A}"/>
+    <hyperlink ref="B89" r:id="rId69" display="https://doi.org/10.1523/jneurosci.1180-12.2012" xr:uid="{314D8660-5109-6940-8E89-96EDF42385B2}"/>
+    <hyperlink ref="B90" r:id="rId70" display="https://doi.org/10.1038/tp.2016.113" xr:uid="{771648AD-8305-8B4C-853F-84D08A5FD8C6}"/>
+    <hyperlink ref="B91" r:id="rId71" display="https://doi.org/10.1162/jocn_a_00464" xr:uid="{C30E2B02-BE59-F54C-90C7-E3C6F387E6F8}"/>
+    <hyperlink ref="B92" r:id="rId72" display="https://doi.org/10.1007/s00213-019-05337-6" xr:uid="{E13DBBD0-01DE-D148-B0BD-45F1DA13EA5D}"/>
+    <hyperlink ref="B93" r:id="rId73" display="https://doi.org/10.1007/s00213-020-05693-8" xr:uid="{68514CD2-8C72-C54E-8AA9-D6609F04571D}"/>
+    <hyperlink ref="B95" r:id="rId74" display="https://doi.org/10.1038/npp.2013.48" xr:uid="{BA249742-D553-A742-992D-18D07A2D5DE1}"/>
+    <hyperlink ref="B96" r:id="rId75" display="https://doi.org/10.1007/s002130100851" xr:uid="{56DE0EF6-5CE6-EE46-95DD-2F461364C3CC}"/>
+    <hyperlink ref="B97" r:id="rId76" display="https://doi.org/10.1007/s00213-024-06567-z" xr:uid="{79B207A3-1330-694E-9637-96E61B6E7DCC}"/>
+    <hyperlink ref="B98" r:id="rId77" display="https://doi.org/10.3389/fpsyt.2018.00346" xr:uid="{A52E1880-FBB3-E34F-8FAF-F8C20CD0ED93}"/>
+    <hyperlink ref="B99" r:id="rId78" display="https://doi.org/10.1007/s00213-006-0690-y" xr:uid="{F4B775EB-34C8-9B43-AA58-9AC08697CA5D}"/>
+    <hyperlink ref="B100" r:id="rId79" display="https://doi.org/10.1007/s00213-004-2128-8" xr:uid="{60E7E967-3343-2B40-B50C-E6955D9EB77A}"/>
+    <hyperlink ref="B101" r:id="rId80" display="https://doi.org/10.1073/pnas.1202229109" xr:uid="{13B295E7-FE07-5A4D-9050-7D26061BDA6D}"/>
+    <hyperlink ref="B102" r:id="rId81" display="https://doi.org/10.1007/s00213-013-3313-4" xr:uid="{830A92B7-D4C8-9C4A-877D-3DD2B788BE90}"/>
+    <hyperlink ref="B103" r:id="rId82" display="https://doi.org/10.1038/s41386-022-01291-8" xr:uid="{FAC68A04-02BC-B84B-8315-B5350D429801}"/>
+    <hyperlink ref="B104" r:id="rId83" display="https://doi.org/10.1007/s00213-014-3682-3" xr:uid="{0DB41CD1-DE5F-3F43-8C23-4DD35B04D8BE}"/>
+    <hyperlink ref="B105" r:id="rId84" display="https://doi.org/10.1038/s41467-024-50394-x" xr:uid="{1554E474-1D9F-1842-810D-37DDF3C2F092}"/>
+    <hyperlink ref="B106" r:id="rId85" display="https://doi.org/10.1038/s42003-022-03690-5" xr:uid="{F902BFD8-468A-654A-9F62-B6FEF59FD8D2}"/>
+    <hyperlink ref="B107" r:id="rId86" display="https://doi.org/10.3389/fnhum.2010.00170" xr:uid="{286B4DAD-8880-4944-9788-25751748A4F3}"/>
+    <hyperlink ref="B108" r:id="rId87" display="https://doi.org/10.1038/s41386-023-01762-6" xr:uid="{33B63D74-DC45-3E45-8C1B-512732358681}"/>
+    <hyperlink ref="B109" r:id="rId88" display="https://doi.org/10.1038/sj.npp.1301182" xr:uid="{3158E17A-2748-FD49-A90B-F9F7930DFF49}"/>
+    <hyperlink ref="B110" r:id="rId89" display="https://doi.org/10.1038/sj.npp.1301598" xr:uid="{115DDF22-0AD1-1746-B774-F900B6054A12}"/>
+    <hyperlink ref="B111" r:id="rId90" display="https://doi.org/10.1038/npp.2012.75" xr:uid="{60D8164C-31B1-A24A-852C-7FFB31B20E05}"/>
+    <hyperlink ref="B112" r:id="rId91" display="https://doi.org/10.1007/s00213-011-2410-5" xr:uid="{39EE2E09-04C2-8F42-A6BE-BC0CD94DD84E}"/>
+    <hyperlink ref="B113" r:id="rId92" display="https://doi.org/10.1523/JNEUROSCI.0053-12.2012" xr:uid="{6CC7A2F5-CF8B-784E-A314-45BD42851AA9}"/>
+    <hyperlink ref="B114" r:id="rId93" display="https://doi.org/10.1177/02698811231216325" xr:uid="{F900B289-308B-DA4F-9CB6-FF1CECAE4E1C}"/>
+    <hyperlink ref="B115" r:id="rId94" display="https://doi.org/10.1016/s0166-4328(02)00132-8" xr:uid="{79DFC3DB-7519-904C-8B6F-B2EF0A39419E}"/>
+    <hyperlink ref="B116" r:id="rId95" display="https://doi.org/10.1371/journal.pone.0001333" xr:uid="{F42432A7-1EE4-3B4A-816C-2DFCCF10B10F}"/>
+    <hyperlink ref="B117" r:id="rId96" display="https://doi.org/10.1523/jneurosci.4982-07.2008" xr:uid="{C7F08707-086A-C543-8EDA-57017EE745F6}"/>
+    <hyperlink ref="B119" r:id="rId97" display="https://doi.org/10.1038/sj.npp.1300704" xr:uid="{3A5E6B07-0934-D540-A25E-EEFE74334DE3}"/>
+    <hyperlink ref="B120" r:id="rId98" display="https://doi.org/10.1038/sj.npp.1301055" xr:uid="{E689B922-E4A3-4F40-AAD0-9481A5EAD417}"/>
+    <hyperlink ref="B121" r:id="rId99" display="https://doi.org/10.1017/s0033291721005493" xr:uid="{64028CAC-EF91-8A4E-A273-1C7F16BFEBD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
